--- a/result/10-4_vicuna13_naive-optim_500/eval/scoring_template.xlsx
+++ b/result/10-4_vicuna13_naive-optim_500/eval/scoring_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="343">
   <si>
     <t>rules</t>
   </si>
@@ -305,391 +305,808 @@
     <t>reasoned_answer</t>
   </si>
   <si>
+    <t>2329535.jpg</t>
+  </si>
+  <si>
+    <t>2408290.jpg</t>
+  </si>
+  <si>
+    <t>2321389.jpg</t>
+  </si>
+  <si>
+    <t>2380438.jpg</t>
+  </si>
+  <si>
+    <t>1159351.jpg</t>
+  </si>
+  <si>
+    <t>2403286.jpg</t>
+  </si>
+  <si>
+    <t>2335580.jpg</t>
+  </si>
+  <si>
+    <t>2402695.jpg</t>
+  </si>
+  <si>
+    <t>2347921.jpg</t>
+  </si>
+  <si>
+    <t>2353575.jpg</t>
+  </si>
+  <si>
+    <t>2342596.jpg</t>
+  </si>
+  <si>
+    <t>2402093.jpg</t>
+  </si>
+  <si>
+    <t>2340260.jpg</t>
+  </si>
+  <si>
+    <t>2356501.jpg</t>
+  </si>
+  <si>
+    <t>2417032.jpg</t>
+  </si>
+  <si>
+    <t>2384295.jpg</t>
+  </si>
+  <si>
+    <t>2320752.jpg</t>
+  </si>
+  <si>
     <t>2321990.jpg</t>
   </si>
   <si>
-    <t>2403286.jpg</t>
-  </si>
-  <si>
-    <t>2402093.jpg</t>
-  </si>
-  <si>
-    <t>2380438.jpg</t>
+    <t>2366289.jpg</t>
+  </si>
+  <si>
+    <t>2345458.jpg</t>
+  </si>
+  <si>
+    <t>2361750.jpg</t>
   </si>
   <si>
     <t>2360023.jpg</t>
   </si>
   <si>
+    <t>2387659.jpg</t>
+  </si>
+  <si>
+    <t>2387492.jpg</t>
+  </si>
+  <si>
+    <t>2341916.jpg</t>
+  </si>
+  <si>
+    <t>2394235.jpg</t>
+  </si>
+  <si>
+    <t>2324496.jpg</t>
+  </si>
+  <si>
+    <t>2338295.jpg</t>
+  </si>
+  <si>
     <t>2378845.jpg</t>
   </si>
   <si>
-    <t>2361750.jpg</t>
-  </si>
-  <si>
-    <t>2342596.jpg</t>
-  </si>
-  <si>
-    <t>2384295.jpg</t>
+    <t>2404643.jpg</t>
+  </si>
+  <si>
+    <t>2417850.jpg</t>
   </si>
   <si>
     <t>2349840.jpg</t>
   </si>
   <si>
-    <t>2404643.jpg</t>
-  </si>
-  <si>
-    <t>2347921.jpg</t>
-  </si>
-  <si>
-    <t>2356501.jpg</t>
-  </si>
-  <si>
-    <t>2353575.jpg</t>
-  </si>
-  <si>
-    <t>1159351.jpg</t>
-  </si>
-  <si>
-    <t>2341916.jpg</t>
-  </si>
-  <si>
-    <t>2335580.jpg</t>
+    <t>2393668.jpg</t>
+  </si>
+  <si>
+    <t>2335961.jpg</t>
+  </si>
+  <si>
+    <t>Which color vase is holding the bouquet of roses?</t>
+  </si>
+  <si>
+    <t>How many motorcycles are visible in the image?</t>
+  </si>
+  <si>
+    <t>Is the man snowboarding on a ramp or a rail?</t>
+  </si>
+  <si>
+    <t>Which pizza has more toppings?</t>
+  </si>
+  <si>
+    <t>What are the four men playing with?</t>
+  </si>
+  <si>
+    <t>How many different types of food are on the plate?</t>
+  </si>
+  <si>
+    <t>Who is the girl in the image?</t>
+  </si>
+  <si>
+    <t>What is the main activity of the people in the image?</t>
+  </si>
+  <si>
+    <t>How many slices of pizza are on the boy's plate?</t>
+  </si>
+  <si>
+    <t>Is the boy holding a frisbee?</t>
+  </si>
+  <si>
+    <t>Which two girls are walking down the street in the rain?</t>
+  </si>
+  <si>
+    <t>Where/when is the skateboarder performing a trick?</t>
+  </si>
+  <si>
+    <t>Where was the image taken?</t>
+  </si>
+  <si>
+    <t>What is the woman holding in her hand?</t>
+  </si>
+  <si>
+    <t>What is the person doing in the image?</t>
+  </si>
+  <si>
+    <t>What is the boy's favorite color?</t>
+  </si>
+  <si>
+    <t>What is the time displayed on the clock?</t>
+  </si>
+  <si>
+    <t>Where is the clock located?</t>
+  </si>
+  <si>
+    <t>Is the woman wearing a blue hat?</t>
+  </si>
+  <si>
+    <t>Is the skateboarder performing a trick in the air?</t>
+  </si>
+  <si>
+    <t>Which table is the most visible in the image?</t>
+  </si>
+  <si>
+    <t>Which woman is wearing glasses?</t>
+  </si>
+  <si>
+    <t>How many horns does the yak have?</t>
+  </si>
+  <si>
+    <t>Are the men playing a video game together?</t>
+  </si>
+  <si>
+    <t>Whose snowboard is it that is riding on the red ramp in the image?</t>
+  </si>
+  <si>
+    <t>What is the name of the train company that operates this train?</t>
+  </si>
+  <si>
+    <t>What is the main dish on the plate?</t>
+  </si>
+  <si>
+    <t>Is the woman playing tennis on a grass court?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the vegetables on the table?</t>
+  </si>
+  <si>
+    <t>Who is eating the pizza in the image?</t>
+  </si>
+  <si>
+    <t>How many pizzas are on the table?</t>
+  </si>
+  <si>
+    <t>Which car is parked on the side of the road?</t>
+  </si>
+  <si>
+    <t>Which dish is being prepared on the stove?</t>
+  </si>
+  <si>
+    <t>Which path leads to the top of the hill?</t>
+  </si>
+  <si>
+    <t>How many cats are on the bed with the man?</t>
+  </si>
+  <si>
+    <t>Is the giraffe walking on a dirt road?</t>
+  </si>
+  <si>
+    <t>Is the train on the tracks?</t>
+  </si>
+  <si>
+    <t>Is the sink in a dirty bathroom?</t>
+  </si>
+  <si>
+    <t>Which tennis player is holding a racquet and a towel?</t>
+  </si>
+  <si>
+    <t>Is the man sitting on the stairs?</t>
+  </si>
+  <si>
+    <t>Where is the trail leading to?</t>
+  </si>
+  <si>
+    <t>What is the color of the vase holding the bouquet of roses?</t>
+  </si>
+  <si>
+    <t>Which animal is sitting in the grass in front of a mountain?</t>
+  </si>
+  <si>
+    <t>What is the color of the train in the image?</t>
   </si>
   <si>
     <t>Which magazine is the woman reading?</t>
   </si>
   <si>
-    <t>How many different types of food are on the plate?</t>
-  </si>
-  <si>
-    <t>Where/when is the skateboarder performing a trick?</t>
-  </si>
-  <si>
-    <t>Which pizza has more toppings?</t>
+    <t>What is the breed of the animal in the image?</t>
+  </si>
+  <si>
+    <t>Is the boy standing next to a bicycle?</t>
   </si>
   <si>
     <t>Whose train is this?</t>
   </si>
   <si>
+    <t>What is the man's profession?</t>
+  </si>
+  <si>
+    <t>Which person is wearing a helmet while skiing?</t>
+  </si>
+  <si>
+    <t>How many steps does the man sit on?</t>
+  </si>
+  <si>
+    <t>What is the natural habitat of giraffes?</t>
+  </si>
+  <si>
+    <t>How many people are in the image?</t>
+  </si>
+  <si>
+    <t>How many wooden benches are there in the image?</t>
+  </si>
+  <si>
+    <t>Which airport is this?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the umbrellas on the beach?</t>
+  </si>
+  <si>
+    <t>Which of the four men is holding a Wii remote?</t>
+  </si>
+  <si>
+    <t>What is the condition of the bathroom sink and toilet?</t>
+  </si>
+  <si>
+    <t>Who is sleeping on the bed?</t>
+  </si>
+  <si>
+    <t>Where are the two men sitting?</t>
+  </si>
+  <si>
+    <t>Whose beard is visible in the image?</t>
+  </si>
+  <si>
+    <t>Whose train is traveling down the tracks in the image?</t>
+  </si>
+  <si>
+    <t>How many people are playing tennis on the court?</t>
+  </si>
+  <si>
+    <t>Whose skis are visible in the image?</t>
+  </si>
+  <si>
+    <t>Where is the plate of food located?</t>
+  </si>
+  <si>
+    <t>Which of the three horses is the most dominant in terms of size and appearance?</t>
+  </si>
+  <si>
     <t>Who is responsible for maintaining the cleanliness of the bathroom sink and toilet?</t>
   </si>
   <si>
-    <t>How many horns does the yak have?</t>
-  </si>
-  <si>
-    <t>Which animal is sitting in the grass in front of a mountain?</t>
-  </si>
-  <si>
-    <t>Is the skateboarder performing a trick in the air?</t>
-  </si>
-  <si>
-    <t>Which two girls are walking down the street in the rain?</t>
-  </si>
-  <si>
-    <t>Is the woman wearing a blue hat?</t>
-  </si>
-  <si>
-    <t>What is the boy's favorite color?</t>
+    <t>Are the police officers on horseback?</t>
+  </si>
+  <si>
+    <t>Where are the police officers riding their horses?</t>
+  </si>
+  <si>
+    <t>Who is standing on the dirt road?</t>
+  </si>
+  <si>
+    <t>How many fire hydrants are visible in the image?</t>
   </si>
   <si>
     <t>What is the color of the train engine?</t>
   </si>
   <si>
-    <t>What is the man's profession?</t>
-  </si>
-  <si>
-    <t>Is the boy standing next to a bicycle?</t>
-  </si>
-  <si>
-    <t>How many steps does the man sit on?</t>
-  </si>
-  <si>
-    <t>Where is the plate of food located?</t>
-  </si>
-  <si>
-    <t>Where are the two men sitting?</t>
-  </si>
-  <si>
-    <t>How many pizzas are on the table?</t>
-  </si>
-  <si>
-    <t>What is the name of the train company that operates this train?</t>
-  </si>
-  <si>
-    <t>How many slices of pizza are on the boy's plate?</t>
-  </si>
-  <si>
-    <t>Is the train on the tracks?</t>
-  </si>
-  <si>
-    <t>What is the breed of the animal in the image?</t>
-  </si>
-  <si>
-    <t>Which tennis player is holding a racquet and a towel?</t>
-  </si>
-  <si>
-    <t>Is the boy holding a frisbee?</t>
-  </si>
-  <si>
-    <t>What are the four men playing with?</t>
-  </si>
-  <si>
-    <t>Which dish is being prepared on the stove?</t>
-  </si>
-  <si>
-    <t>What is the woman holding in her hand?</t>
-  </si>
-  <si>
-    <t>Who is eating the pizza in the image?</t>
-  </si>
-  <si>
     <t>Where is the boy standing in the image?</t>
   </si>
   <si>
+    <t>Who is the rider of the motorcycle in the image?</t>
+  </si>
+  <si>
     <t>Is the girl playing baseball or softball?</t>
   </si>
   <si>
     <t>What is the activity that the boy and the man are engaged in?</t>
   </si>
   <si>
-    <t>Which of the four men is holding a Wii remote?</t>
-  </si>
-  <si>
-    <t>What is the main dish on the plate?</t>
-  </si>
-  <si>
-    <t>Who is the girl in the image?</t>
-  </si>
-  <si>
-    <t>Is the sink in a dirty bathroom?</t>
+    <t>Where are the three people standing?</t>
+  </si>
+  <si>
+    <t>How many different types of vegetables are on the table?</t>
+  </si>
+  <si>
+    <t>Whose car is parked on the side of the road?</t>
+  </si>
+  <si>
+    <t>How many different types of flowers are in the vase?</t>
   </si>
   <si>
     <t>Is the umbrella colorful?</t>
   </si>
   <si>
-    <t>Is the man sitting on the stairs?</t>
-  </si>
-  <si>
-    <t>Are the men playing a video game together?</t>
+    <t>Which color is the snowboarder's jacket?</t>
   </si>
   <si>
     <t>How many books are on the table?</t>
   </si>
   <si>
+    <t>Which mountain range is visible in the background of the image?</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>The man is snowboarding on a ramp.</t>
+  </si>
+  <si>
+    <t>The pizza on the right.</t>
+  </si>
+  <si>
+    <t>Wii remotes</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>The girl in the image is a young girl.</t>
+  </si>
+  <si>
+    <t>Skiing</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>The two girls walking down the street in the rain are wearing white jackets.</t>
+  </si>
+  <si>
+    <t>Outside, on a street.</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Tennis racket</t>
+  </si>
+  <si>
+    <t>The person in the image is skiing down a snow-covered slope.</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>On the side of a building.</t>
+  </si>
+  <si>
+    <t>The one closest to the camera.</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>The snowboard belongs to the man in the image.</t>
+  </si>
+  <si>
+    <t>Southern Railways</t>
+  </si>
+  <si>
+    <t>Enchilada</t>
+  </si>
+  <si>
+    <t>The vegetables on the table are being displayed for sale.</t>
+  </si>
+  <si>
+    <t>A young boy.</t>
+  </si>
+  <si>
+    <t>A Chicago Police car.</t>
+  </si>
+  <si>
+    <t>Fish and rice.</t>
+  </si>
+  <si>
+    <t>The dirt path.</t>
+  </si>
+  <si>
+    <t>A woman.</t>
+  </si>
+  <si>
+    <t>The trail is leading to a forest.</t>
+  </si>
+  <si>
+    <t>Bull</t>
+  </si>
+  <si>
+    <t>Green and red.</t>
+  </si>
+  <si>
     <t>Clw</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Outside, on a street.</t>
-  </si>
-  <si>
-    <t>The pizza on the right.</t>
+    <t>Highland cow</t>
   </si>
   <si>
     <t>Southern Railway</t>
   </si>
   <si>
+    <t>He is a news reporter.</t>
+  </si>
+  <si>
+    <t>The person in the front.</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>The train belongs to the railroad company.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Security Red Zone Airport</t>
+  </si>
+  <si>
+    <t>The umbrellas on the beach are there to provide shade and protection from the sun for the people sitting at the tables.</t>
+  </si>
+  <si>
+    <t>The man on the left.</t>
+  </si>
+  <si>
+    <t>The bathroom sink and toilet are in poor condition, with peeling paint and a dirty appearance.</t>
+  </si>
+  <si>
+    <t>A man and two cats.</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Man's</t>
+  </si>
+  <si>
+    <t>The train in the image belongs to the company Fret.</t>
+  </si>
+  <si>
+    <t>The skier's skis are visible in the image.</t>
+  </si>
+  <si>
+    <t>On a table.</t>
+  </si>
+  <si>
+    <t>The horse on the right.</t>
+  </si>
+  <si>
     <t>The person who uses the bathroom is responsible for maintaining the cleanliness of the sink and toilet.</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Bull</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>The two girls walking down the street in the rain are wearing white jackets.</t>
-  </si>
-  <si>
-    <t>Black</t>
+    <t>On a street.</t>
+  </si>
+  <si>
+    <t>Giraffes</t>
   </si>
   <si>
     <t>Blue and white.</t>
   </si>
   <si>
-    <t>He is a news reporter.</t>
-  </si>
-  <si>
-    <t>On a table.</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Southern Railways</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Highland cow</t>
-  </si>
-  <si>
-    <t>A woman.</t>
-  </si>
-  <si>
-    <t>Wii remotes</t>
-  </si>
-  <si>
-    <t>Fish and rice.</t>
-  </si>
-  <si>
-    <t>Tennis racket</t>
-  </si>
-  <si>
-    <t>A young boy.</t>
-  </si>
-  <si>
-    <t>The train belongs to the railroad company.</t>
-  </si>
-  <si>
     <t>Grass</t>
   </si>
   <si>
+    <t>A man is riding the motorcycle in the image.</t>
+  </si>
+  <si>
     <t>Softball</t>
   </si>
   <si>
     <t>Playing with a frisbee.</t>
   </si>
   <si>
-    <t>The man on the left.</t>
-  </si>
-  <si>
-    <t>Enchilada</t>
-  </si>
-  <si>
-    <t>The girl in the image is a young girl.</t>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Chicago Police</t>
+  </si>
+  <si>
+    <t>Alps</t>
+  </si>
+  <si>
+    <t>The vase holding the bouquet of roses is purple.</t>
+  </si>
+  <si>
+    <t>There is only one motorcycle visible in the image, which is a purple and white motorcycle with a rider on it.</t>
+  </si>
+  <si>
+    <t>The man is riding a snowboard down a ramp, which is a common feature in snowboarding parks for performing tricks and jumps.</t>
+  </si>
+  <si>
+    <t>The pizza on the right has more toppings than the pizza on the left.</t>
+  </si>
+  <si>
+    <t>The four men are playing with Wii remotes, which are controllers for the Nintendo Wii gaming console.</t>
+  </si>
+  <si>
+    <t>The plate contains a main dish (enchilada), beans, rice, and cheese.</t>
+  </si>
+  <si>
+    <t>The image shows a young girl swinging a pink bat in a grassy field, which suggests that she is the main subject of the photo.</t>
+  </si>
+  <si>
+    <t>The people in the image are wearing ski gear and holding ski poles, indicating that they are engaging in skiing activities.</t>
+  </si>
+  <si>
+    <t>There are three slices of pizza on the boy's plate.</t>
+  </si>
+  <si>
+    <t>The boy is holding a frisbee in the image.</t>
+  </si>
+  <si>
+    <t>The image shows two girls walking down the street in the rain, and they are both wearing white jackets.</t>
+  </si>
+  <si>
+    <t>The skateboarder is performing a trick outside, on a street, as evidenced by the presence of a staircase and the fact that he is in mid-air while riding his skateboard.</t>
+  </si>
+  <si>
+    <t>The image shows a variety of fruits and vegetables on a table, which suggests that it was taken in a kitchen setting where food is prepared and displayed.</t>
+  </si>
+  <si>
+    <t>The woman is holding a tennis racket in her hand.</t>
+  </si>
+  <si>
+    <t>The image shows a person wearing skis and holding ski poles, actively skiing down a snow-covered slope.</t>
+  </si>
+  <si>
+    <t>The boy is wearing a brown shirt and jeans, which are his favorite colors.</t>
+  </si>
+  <si>
+    <t>The clock shows the time as 12:30, which is the time when the clock is at its highest point.</t>
+  </si>
+  <si>
+    <t>The clock is mounted on the side of a building, making it visible to people in the surrounding area.</t>
+  </si>
+  <si>
+    <t>The woman is wearing a blue hat while sitting in the chair.</t>
+  </si>
+  <si>
+    <t>The skateboarder is captured in mid-air while performing a trick, indicating that they are skilled and experienced in skateboarding.</t>
+  </si>
+  <si>
+    <t>The table closest to the camera is the most visible, as it is the one that is most in focus and occupies the most space in the image.</t>
+  </si>
+  <si>
+    <t>The woman on the right is wearing glasses, while the woman on the left is not.</t>
+  </si>
+  <si>
+    <t>The yak has two horns, one on each side of its head.</t>
+  </si>
+  <si>
+    <t>The men are holding Wii remotes and standing together, which suggests they are playing a video game together.</t>
+  </si>
+  <si>
+    <t>The image shows a man snowboarding on a red ramp, and the snowboard is clearly visible beneath him. The man is the only person in the image, so it can be inferred that the snowboard belongs to him.</t>
+  </si>
+  <si>
+    <t>The train is operated by Southern Railways, as indicated by the name on the side of the train.</t>
+  </si>
+  <si>
+    <t>The main dish on the plate is an enchilada, which is a Mexican dish consisting of a rolled tortilla filled with meat, cheese, and other ingredients, and then baked or fried. The enchilada in the image is covered in a yellow sauce, which is a common accompaniment to enchiladas.</t>
+  </si>
+  <si>
+    <t>The woman is playing tennis on a grass court, as indicated by the presence of a tennis racket and the fact that she is crouching in a ready position to hit the ball.</t>
+  </si>
+  <si>
+    <t>The image shows a variety of vegetables, including carrots, tomatoes, and squash, arranged on a table. This suggests that they are being presented for customers to purchase, indicating that they are for sale.</t>
+  </si>
+  <si>
+    <t>The image shows a young boy sitting at a table, eating a slice of pizza.</t>
+  </si>
+  <si>
+    <t>There are two pizzas on the table, one in front of each man.</t>
+  </si>
+  <si>
+    <t>The image shows a Chicago Police car parked on the side of the road, and there is a fire hydrant nearby.</t>
+  </si>
+  <si>
+    <t>The image shows a pot of fish and rice on the stove, along with other pots containing different ingredients.</t>
+  </si>
+  <si>
+    <t>The image shows a dirt path leading up a hill, surrounded by trees and plants. This suggests that the path is the most direct route to the top of the hill.</t>
+  </si>
+  <si>
+    <t>There are two cats on the bed with the man, one on each side of him.</t>
+  </si>
+  <si>
+    <t>The giraffe is walking on a dirt road, as seen in the image.</t>
+  </si>
+  <si>
+    <t>The train is sitting on the tracks, indicating that it is in motion or stationary.</t>
+  </si>
+  <si>
+    <t>The sink is dirty and the bathroom appears to be in a state of disrepair, indicating that it is not well-maintained.</t>
+  </si>
+  <si>
+    <t>The image shows a woman holding a tennis racquet and a towel, indicating that she is a tennis player.</t>
+  </si>
+  <si>
+    <t>The man is sitting on the stairs, as seen in the image.</t>
+  </si>
+  <si>
+    <t>The image shows a trail surrounded by trees and vegetation, indicating that it is heading towards a forest.</t>
+  </si>
+  <si>
+    <t>The image shows a large animal with horns sitting in the grass in front of a mountain. The animal is described as a bull, which is a male cow with horns.</t>
+  </si>
+  <si>
+    <t>The train in the image is green and red, indicating that it is a passenger train.</t>
   </si>
   <si>
     <t>The woman is reading a magazine called Clw while sitting in her chair.</t>
   </si>
   <si>
-    <t>The plate contains a main dish (enchilada), beans, rice, and cheese.</t>
-  </si>
-  <si>
-    <t>The skateboarder is performing a trick outside, on a street, as evidenced by the presence of a staircase and the fact that he is in mid-air while riding his skateboard.</t>
-  </si>
-  <si>
-    <t>The pizza on the right has more toppings than the pizza on the left.</t>
+    <t>The animal in the image is a Highland cow, which is characterized by its long hair, curved horns, and distinctive appearance.</t>
+  </si>
+  <si>
+    <t>The image shows a young boy standing next to a bicycle, indicating that they are in close proximity to each other.</t>
   </si>
   <si>
     <t>The train is a Southern Railway train, as indicated by the logo on the side of the train.</t>
   </si>
   <si>
+    <t>The train is traveling down the tracks, indicating that it is on the tracks.</t>
+  </si>
+  <si>
+    <t>The man is wearing a tie, which is a common attire for news reporters, and he is sitting on the steps of a building, possibly waiting for a story or interview.</t>
+  </si>
+  <si>
+    <t>The person in the front is wearing a helmet for safety while skiing down the snowy mountain.</t>
+  </si>
+  <si>
+    <t>The man is sitting on the fourth step from the top.</t>
+  </si>
+  <si>
+    <t>Giraffes are native to Africa and typically inhabit savannahs, grasslands, and open woodlands. They are well-adapted to these environments due to their long necks and legs, which allow them to reach high branches for food and spot predators from a distance. In the image, the giraffes are seen walking across a dirt road, which is consistent with their natural habitat.</t>
+  </si>
+  <si>
+    <t>The train is a large, long cargo train, which suggests that it is used for transporting goods and materials. Railroad companies typically own and operate such trains for commercial purposes.</t>
+  </si>
+  <si>
+    <t>There are three people in the image, a man and two women.</t>
+  </si>
+  <si>
+    <t>There are 10 wooden benches in the image, arranged in two rows of 5 benches each.</t>
+  </si>
+  <si>
+    <t>The presence of a security red zone sign suggests that this is an airport with restricted access.</t>
+  </si>
+  <si>
+    <t>The umbrellas are placed near the tables, and their purpose is to create a comfortable outdoor seating area for beachgoers to enjoy their meals or relax while being protected from the sun's harmful rays.</t>
+  </si>
+  <si>
+    <t>The man on the left is holding a Wii remote, while the other three men are holding Nintendo Wii controllers.</t>
+  </si>
+  <si>
+    <t>The sink and toilet are dirty and have peeling paint, indicating that they have not been well-maintained or cleaned for a long time. This could be due to neglect or lack of resources for proper upkeep.</t>
+  </si>
+  <si>
+    <t>The image shows a man sleeping on a bed with two cats lying beside him.</t>
+  </si>
+  <si>
+    <t>The two men are sitting at a table with pizzas in front of them, which suggests that they are in a restaurant.</t>
+  </si>
+  <si>
+    <t>The man in the image has a visible beard.</t>
+  </si>
+  <si>
+    <t>The train is green and has the letters Fret visible on it, indicating that it belongs to the company Fret.</t>
+  </si>
+  <si>
+    <t>There are two people on the tennis court, one woman and one man, both holding tennis rackets and preparing to play.</t>
+  </si>
+  <si>
+    <t>The image shows a person wearing skis and holding ski poles, and the skis are clearly visible in the scene.</t>
+  </si>
+  <si>
+    <t>The plate of food is placed on a table, which is a common surface for dining.</t>
+  </si>
+  <si>
+    <t>The horse on the right is the most dominant in terms of size and appearance, as it is taller and has a more prominent presence compared to the other two horses.</t>
+  </si>
+  <si>
     <t>It is the responsibility of the person who uses the bathroom to keep the sink and toilet clean and hygienic. This includes washing hands after using the toilet, wiping down the sink after use, and regularly cleaning the surfaces to prevent the buildup of dirt and grime.</t>
   </si>
   <si>
-    <t>The yak has two horns, one on each side of its head.</t>
-  </si>
-  <si>
-    <t>The image shows a large animal with horns sitting in the grass in front of a mountain. The animal is described as a bull, which is a male cow with horns.</t>
-  </si>
-  <si>
-    <t>The skateboarder is captured in mid-air while performing a trick, indicating that they are skilled and experienced in skateboarding.</t>
-  </si>
-  <si>
-    <t>The image shows two girls walking down the street in the rain, and they are both wearing white jackets.</t>
-  </si>
-  <si>
-    <t>The woman is wearing a blue hat while sitting in the chair.</t>
-  </si>
-  <si>
-    <t>The boy is wearing a brown shirt and jeans, which are his favorite colors.</t>
+    <t>The image shows three police officers riding horses on a street.</t>
+  </si>
+  <si>
+    <t>The image shows police officers riding their horses on a street, which suggests that they are patrolling or participating in a public event.</t>
+  </si>
+  <si>
+    <t>The image shows a group of giraffes standing on a dirt road in a natural setting.</t>
+  </si>
+  <si>
+    <t>There is only one fire hydrant visible in the image, located on the sidewalk near the police car.</t>
   </si>
   <si>
     <t>The train engine is blue and white in color.</t>
   </si>
   <si>
-    <t>The man is wearing a tie, which is a common attire for news reporters, and he is sitting on the steps of a building, possibly waiting for a story or interview.</t>
-  </si>
-  <si>
-    <t>The image shows a young boy standing next to a bicycle, indicating that they are in close proximity to each other.</t>
-  </si>
-  <si>
-    <t>The man is sitting on the fourth step from the top.</t>
-  </si>
-  <si>
-    <t>The plate of food is placed on a table, which is a common surface for dining.</t>
-  </si>
-  <si>
-    <t>The two men are sitting at a table with pizzas in front of them, which suggests that they are in a restaurant.</t>
-  </si>
-  <si>
-    <t>There are two pizzas on the table, one in front of each man.</t>
-  </si>
-  <si>
-    <t>The train is operated by Southern Railways, as indicated by the name on the side of the train.</t>
-  </si>
-  <si>
-    <t>There are three slices of pizza on the boy's plate.</t>
-  </si>
-  <si>
-    <t>The train is sitting on the tracks, indicating that it is in motion or stationary.</t>
-  </si>
-  <si>
-    <t>The animal in the image is a Highland cow, which is characterized by its long hair, curved horns, and distinctive appearance.</t>
-  </si>
-  <si>
-    <t>The image shows a woman holding a tennis racquet and a towel, indicating that she is a tennis player.</t>
-  </si>
-  <si>
-    <t>The boy is holding a frisbee in the image.</t>
-  </si>
-  <si>
-    <t>The four men are playing with Wii remotes, which are controllers for the Nintendo Wii gaming console.</t>
-  </si>
-  <si>
-    <t>The image shows a pot of fish and rice on the stove, along with other pots containing different ingredients.</t>
-  </si>
-  <si>
-    <t>The woman is holding a tennis racket in her hand.</t>
-  </si>
-  <si>
-    <t>The image shows a young boy sitting at a table, eating a slice of pizza.</t>
-  </si>
-  <si>
-    <t>The train is a large, long cargo train, which suggests that it is used for transporting goods and materials. Railroad companies typically own and operate such trains for commercial purposes.</t>
-  </si>
-  <si>
     <t>The boy is standing in the grass, which is a natural outdoor setting.</t>
   </si>
   <si>
+    <t>The image shows a man riding a motorcycle on a track, and there is no indication that it is a woman or someone else.</t>
+  </si>
+  <si>
     <t>The girl is swinging a pink bat, which is commonly used in softball.</t>
   </si>
   <si>
     <t>The image shows a boy and a man standing in a grassy field, with the boy holding a frisbee. This suggests that they are engaged in a game of frisbee, which is a popular outdoor activity.</t>
   </si>
   <si>
-    <t>The man on the left is holding a Wii remote, while the other three men are holding Nintendo Wii controllers.</t>
-  </si>
-  <si>
-    <t>The main dish on the plate is an enchilada, which is a Mexican dish consisting of a rolled tortilla filled with meat, cheese, and other ingredients, and then baked or fried. The enchilada in the image is covered in a yellow sauce, which is a common accompaniment to enchiladas.</t>
-  </si>
-  <si>
-    <t>The image shows a young girl swinging a pink bat in a grassy field, which suggests that she is the main subject of the photo.</t>
-  </si>
-  <si>
-    <t>The sink is dirty and the bathroom appears to be in a state of disrepair, indicating that it is not well-maintained.</t>
+    <t>The three people are standing outside, posing for a picture.</t>
+  </si>
+  <si>
+    <t>The image shows a variety of vegetables, including tomatoes, squash, onions, carrots, and greens, all placed on a table.</t>
+  </si>
+  <si>
+    <t>The car is a white police SUV, which is parked on the side of the road.</t>
+  </si>
+  <si>
+    <t>The vase contains three different types of flowers: red, yellow, and orange.</t>
   </si>
   <si>
     <t>The umbrella is colorful, which makes it stand out and adds visual interest to the scene.</t>
   </si>
   <si>
-    <t>The man is sitting on the stairs, as seen in the image.</t>
-  </si>
-  <si>
-    <t>The men are holding Wii remotes and standing together, which suggests they are playing a video game together.</t>
+    <t>The train is on the tracks, as it is described as "a train on the tracks" and "a train on the tracks in the grass."</t>
+  </si>
+  <si>
+    <t>The snowboarder is wearing a black jacket.</t>
   </si>
   <si>
     <t>There are three books on the table.</t>
   </si>
   <si>
-    <t>The train is traveling down the tracks, indicating that it is on the tracks.</t>
+    <t>The image shows a person skiing down a snow-covered slope with mountains in the background, and the Alps are a well-known mountain range in Europe.</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +2162,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1791,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1811,19 +2228,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1831,19 +2248,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1857,13 +2274,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L5" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1871,19 +2288,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
         <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1891,19 +2308,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1911,19 +2328,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L8" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1931,19 +2348,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="L9" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1951,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1971,19 +2388,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1991,19 +2408,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2011,19 +2428,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2031,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2051,19 +2468,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2071,19 +2488,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2091,19 +2508,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2111,19 +2528,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2131,19 +2548,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2151,19 +2568,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2171,19 +2588,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2191,19 +2608,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2211,19 +2628,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2231,19 +2648,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2251,19 +2668,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2271,19 +2688,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
         <v>77</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2291,19 +2708,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2311,19 +2728,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2331,19 +2748,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2351,19 +2768,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2371,19 +2788,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2391,19 +2808,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2411,19 +2828,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2431,19 +2848,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2451,19 +2868,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2471,19 +2888,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2491,19 +2908,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2511,19 +2928,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2531,19 +2948,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2551,19 +2968,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s">
         <v>122</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2571,19 +2988,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K41" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2591,19 +3008,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2611,19 +3028,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2631,19 +3048,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="K44" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2651,19 +3068,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2671,19 +3088,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2691,19 +3108,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
         <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K47" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="L47" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2711,19 +3128,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K48" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2731,19 +3148,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2751,19 +3168,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2771,19 +3188,1019 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" t="s">
+        <v>153</v>
+      </c>
+      <c r="K51" t="s">
+        <v>226</v>
+      </c>
+      <c r="L51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" t="s">
+        <v>227</v>
+      </c>
+      <c r="L52" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" t="s">
+        <v>202</v>
+      </c>
+      <c r="L53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s">
+        <v>228</v>
+      </c>
+      <c r="L54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>39</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" t="s">
+        <v>202</v>
+      </c>
+      <c r="L55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>104</v>
+      </c>
+      <c r="J56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" t="s">
+        <v>229</v>
+      </c>
+      <c r="L56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" t="s">
+        <v>198</v>
+      </c>
+      <c r="L58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>65</v>
+      </c>
+      <c r="I59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" t="s">
+        <v>160</v>
+      </c>
+      <c r="K59" t="s">
+        <v>231</v>
+      </c>
+      <c r="L59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61" t="s">
+        <v>201</v>
+      </c>
+      <c r="L61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62" t="s">
+        <v>233</v>
+      </c>
+      <c r="L62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>164</v>
+      </c>
+      <c r="K64" t="s">
+        <v>235</v>
+      </c>
+      <c r="L64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s">
+        <v>165</v>
+      </c>
+      <c r="K65" t="s">
+        <v>236</v>
+      </c>
+      <c r="L65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>51</v>
+      </c>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+      <c r="J66" t="s">
+        <v>166</v>
+      </c>
+      <c r="K66" t="s">
+        <v>237</v>
+      </c>
+      <c r="L66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>68</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" t="s">
+        <v>238</v>
+      </c>
+      <c r="L67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K68" t="s">
+        <v>239</v>
+      </c>
+      <c r="L68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s">
+        <v>169</v>
+      </c>
+      <c r="K69" t="s">
+        <v>240</v>
+      </c>
+      <c r="L69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>62</v>
+      </c>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" t="s">
+        <v>241</v>
+      </c>
+      <c r="L70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>98</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" t="s">
+        <v>213</v>
+      </c>
+      <c r="L71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" t="s">
+        <v>242</v>
+      </c>
+      <c r="L72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s">
+        <v>173</v>
+      </c>
+      <c r="K73" t="s">
+        <v>243</v>
+      </c>
+      <c r="L73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>59</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+      <c r="J74" t="s">
+        <v>174</v>
+      </c>
+      <c r="K74" t="s">
+        <v>244</v>
+      </c>
+      <c r="L74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+      <c r="J75" t="s">
+        <v>175</v>
+      </c>
+      <c r="K75" t="s">
+        <v>245</v>
+      </c>
+      <c r="L75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" t="s">
+        <v>136</v>
+      </c>
+      <c r="K76" t="s">
+        <v>202</v>
+      </c>
+      <c r="L76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>58</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+      <c r="J77" t="s">
+        <v>176</v>
+      </c>
+      <c r="K77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+      <c r="K78" t="s">
+        <v>209</v>
+      </c>
+      <c r="L78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" t="s">
+        <v>202</v>
+      </c>
+      <c r="L79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>95</v>
+      </c>
+      <c r="I80" t="s">
+        <v>100</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" t="s">
+        <v>221</v>
+      </c>
+      <c r="L80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+      <c r="J81" t="s">
+        <v>177</v>
+      </c>
+      <c r="K81" t="s">
+        <v>246</v>
+      </c>
+      <c r="L81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>64</v>
+      </c>
+      <c r="I82" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>178</v>
+      </c>
+      <c r="K82" t="s">
+        <v>247</v>
+      </c>
+      <c r="L82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>85</v>
+      </c>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" t="s">
+        <v>179</v>
+      </c>
+      <c r="K83" t="s">
+        <v>194</v>
+      </c>
+      <c r="L83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
+        <v>180</v>
+      </c>
+      <c r="K84" t="s">
+        <v>248</v>
+      </c>
+      <c r="L84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>99</v>
+      </c>
+      <c r="J85" t="s">
+        <v>141</v>
+      </c>
+      <c r="K85" t="s">
+        <v>220</v>
+      </c>
+      <c r="L85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="J51" t="s">
-        <v>113</v>
-      </c>
-      <c r="K51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L51" t="s">
-        <v>203</v>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" t="s">
+        <v>181</v>
+      </c>
+      <c r="K86" t="s">
+        <v>249</v>
+      </c>
+      <c r="L86" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s">
+        <v>182</v>
+      </c>
+      <c r="K87" t="s">
+        <v>250</v>
+      </c>
+      <c r="L87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" t="s">
+        <v>183</v>
+      </c>
+      <c r="K88" t="s">
+        <v>251</v>
+      </c>
+      <c r="L88" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s">
+        <v>184</v>
+      </c>
+      <c r="K89" t="s">
+        <v>252</v>
+      </c>
+      <c r="L89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s">
+        <v>183</v>
+      </c>
+      <c r="K90" t="s">
+        <v>251</v>
+      </c>
+      <c r="L90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="I91" t="s">
+        <v>94</v>
+      </c>
+      <c r="J91" t="s">
+        <v>185</v>
+      </c>
+      <c r="K91" t="s">
+        <v>253</v>
+      </c>
+      <c r="L91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="I92" t="s">
+        <v>89</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+      <c r="K92" t="s">
+        <v>207</v>
+      </c>
+      <c r="L92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s">
+        <v>186</v>
+      </c>
+      <c r="K93" t="s">
+        <v>254</v>
+      </c>
+      <c r="L93" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>87</v>
+      </c>
+      <c r="I94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J94" t="s">
+        <v>187</v>
+      </c>
+      <c r="K94" t="s">
+        <v>255</v>
+      </c>
+      <c r="L94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s">
+        <v>75</v>
+      </c>
+      <c r="J95" t="s">
+        <v>188</v>
+      </c>
+      <c r="K95" t="s">
+        <v>201</v>
+      </c>
+      <c r="L95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>85</v>
+      </c>
+      <c r="J96" t="s">
+        <v>189</v>
+      </c>
+      <c r="K96" t="s">
+        <v>202</v>
+      </c>
+      <c r="L96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>61</v>
+      </c>
+      <c r="I97" t="s">
+        <v>105</v>
+      </c>
+      <c r="J97" t="s">
+        <v>145</v>
+      </c>
+      <c r="K97" t="s">
+        <v>202</v>
+      </c>
+      <c r="L97" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>72</v>
+      </c>
+      <c r="I98" t="s">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s">
+        <v>190</v>
+      </c>
+      <c r="K98" t="s">
+        <v>208</v>
+      </c>
+      <c r="L98" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>92</v>
+      </c>
+      <c r="J99" t="s">
+        <v>191</v>
+      </c>
+      <c r="K99" t="s">
+        <v>201</v>
+      </c>
+      <c r="L99" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>93</v>
+      </c>
+      <c r="I100" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" t="s">
+        <v>192</v>
+      </c>
+      <c r="K100" t="s">
+        <v>256</v>
+      </c>
+      <c r="L100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>52</v>
+      </c>
+      <c r="I101" t="s">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s">
+        <v>182</v>
+      </c>
+      <c r="K101" t="s">
+        <v>250</v>
+      </c>
+      <c r="L101" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
